--- a/FinalControlTest-2022-11-21 (1).xlsx
+++ b/FinalControlTest-2022-11-21 (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webco\Desktop\texnologiktalim2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6520878-A6DA-4B0D-86BA-57683ACDE035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B868F3-FCE4-4397-8286-8A1F7F5A429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -904,10 +904,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H27"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
